--- a/genshin/488992149893734961_2021-02-07_17-39-17.xlsx
+++ b/genshin/488992149893734961_2021-02-07_17-39-17.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>4194479336</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-02-27 15:19:10</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44254.63831018518</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -613,10 +627,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-02-15 19:30:04</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44242.8125462963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -680,10 +692,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-02-13 03:20:28</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44240.13921296296</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>4105568013</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-02-11 23:13:17</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44238.96755787037</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -819,10 +827,8 @@
           <t>4102503483</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-02-11 14:35:29</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44238.60797453704</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -886,10 +892,8 @@
           <t>4076611763</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-02-11 10:18:53</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44238.42978009259</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -961,10 +965,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-02-10 22:48:12</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44237.95013888889</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1028,10 +1030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-02-10 18:56:09</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44237.78899305555</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1107,10 +1107,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-02-10 18:29:46</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44237.7706712963</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1193,10 +1191,8 @@
           <t>4095110329</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-02-10 11:46:42</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44237.49076388889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1267,10 +1263,8 @@
           <t>4093570185</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-02-10 01:25:45</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44237.05954861111</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1338,10 +1332,8 @@
           <t>4093303026</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-02-10 00:26:53</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44237.01866898148</v>
       </c>
       <c r="I13" t="n">
         <v>6</v>
@@ -1405,10 +1397,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-02-09 23:36:46</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44236.98386574074</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1475,10 +1465,8 @@
           <t>4092857473</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-02-09 23:15:36</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44236.96916666667</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1549,10 +1537,8 @@
           <t>4091990739</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-02-09 21:08:40</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44236.88101851852</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1622,10 +1608,8 @@
           <t>4088842485</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-02-09 20:41:40</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44236.86226851852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1715,10 +1699,8 @@
           <t>4091334446</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-02-09 19:27:16</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44236.81060185185</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1809,10 +1791,8 @@
           <t>4091082213</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-02-09 18:47:54</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44236.78326388889</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1888,10 +1868,8 @@
           <t>4090489371</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-02-09 17:17:20</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44236.72037037037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1955,10 +1933,8 @@
           <t>4090083403</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-02-09 16:08:41</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44236.67269675926</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2040,10 +2016,8 @@
           <t>4089933317</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-02-09 15:42:06</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44236.65423611111</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
@@ -2110,10 +2084,8 @@
           <t>4089287678</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-02-09 13:43:28</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44236.57185185186</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2185,10 +2157,8 @@
           <t>4088958805</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-02-09 12:48:50</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44236.53391203703</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2259,10 +2229,8 @@
           <t>4088855489</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-02-09 12:32:29</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44236.52255787037</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2340,10 +2308,8 @@
           <t>4088842485</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-02-09 12:31:03</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44236.5215625</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2422,10 +2388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-02-09 12:02:56</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44236.50203703704</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2493,10 +2457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-02-09 11:50:28</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44236.49337962963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2575,10 +2537,8 @@
           <t>4088267789</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-02-09 10:59:25</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44236.45792824074</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2642,10 +2602,8 @@
           <t>4088236623</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-02-09 10:53:08</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44236.45356481482</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2709,10 +2667,8 @@
           <t>4076301502</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-02-09 10:24:33</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44236.43371527778</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2788,10 +2744,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-02-09 10:07:01</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44236.42153935185</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2867,10 +2821,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-02-09 08:26:12</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44236.35152777778</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2942,10 +2894,8 @@
           <t>4086759395</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-02-09 01:08:13</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44236.04737268519</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3016,10 +2966,8 @@
           <t>4086770468</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-02-09 01:00:42</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44236.04215277778</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3087,10 +3035,8 @@
           <t>4086759395</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-02-09 01:00:05</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44236.04172453703</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3158,10 +3104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-02-09 00:37:53</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44236.02630787037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3240,10 +3184,8 @@
           <t>4086155989</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-02-08 23:34:12</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44235.98208333334</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3307,10 +3249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-02-08 21:47:52</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44235.90824074074</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -3382,10 +3322,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-02-08 21:21:07</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44235.88966435185</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3445,10 +3383,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-02-08 21:04:59</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44235.87846064815</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3508,10 +3444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-02-08 19:56:33</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44235.8309375</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3579,10 +3513,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-02-08 19:38:11</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44235.81818287037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3658,10 +3590,8 @@
           <t>4076555709</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-02-08 19:17:24</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44235.80375</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3733,10 +3663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-02-08 18:17:55</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44235.76244212963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3807,10 +3735,8 @@
           <t>4083724605</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-02-08 18:14:18</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44235.75993055556</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3874,10 +3800,8 @@
           <t>4083564185</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-02-08 17:52:22</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44235.74469907407</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3945,10 +3869,8 @@
           <t>4083233047</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-02-08 16:59:56</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44235.70828703704</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -4012,10 +3934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-02-08 15:47:38</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44235.6580787037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4087,10 +4007,8 @@
           <t>4082812770</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-02-08 15:47:27</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44235.65795138889</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -4162,10 +4080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-02-08 15:21:08</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44235.63967592592</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4229,10 +4145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-02-08 15:05:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44235.62847222222</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4300,10 +4214,8 @@
           <t>4082551072</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-02-08 14:58:39</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44235.6240625</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4363,10 +4275,8 @@
           <t>4082298591</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-02-08 14:14:01</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44235.59306712963</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4431,10 +4341,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-02-08 14:13:15</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44235.59253472222</v>
       </c>
       <c r="I55" t="n">
         <v>4</v>
@@ -4502,10 +4410,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-02-08 14:03:33</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44235.58579861111</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4572,10 +4478,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-02-08 13:59:09</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44235.58274305556</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4643,10 +4547,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-02-08 13:25:03</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44235.5590625</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4710,10 +4612,8 @@
           <t>4081904203</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-02-08 13:08:08</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44235.54731481482</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4777,10 +4677,8 @@
           <t>4076438140</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-02-08 13:04:11</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44235.54457175926</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4844,10 +4742,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-02-08 13:02:30</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44235.54340277778</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4923,10 +4819,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-02-08 13:01:28</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44235.54268518519</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -5002,10 +4896,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-02-08 12:55:25</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44235.5384837963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5069,10 +4961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-02-08 12:49:57</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44235.5346875</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5147,10 +5037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-02-08 11:24:20</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44235.47523148148</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5229,10 +5117,8 @@
           <t>4081161104</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-02-08 11:15:32</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44235.46912037037</v>
       </c>
       <c r="I66" t="n">
         <v>3</v>
@@ -5304,10 +5190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-02-08 10:21:46</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44235.43178240741</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5375,10 +5259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-02-08 09:55:44</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44235.41370370371</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5453,10 +5335,8 @@
           <t>4080637089</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-02-08 09:41:18</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44235.40368055556</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5532,10 +5412,8 @@
           <t>4080622791</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-02-08 09:38:36</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44235.40180555556</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5611,10 +5489,8 @@
           <t>4080488787</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-02-08 09:09:26</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44235.38155092593</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5682,10 +5558,8 @@
           <t>4080380986</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-02-08 08:41:15</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44235.36197916666</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5749,10 +5623,8 @@
           <t>4080320299</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-02-08 08:27:05</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44235.3521412037</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5816,10 +5688,8 @@
           <t>4080320299</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-02-08 08:23:15</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44235.34947916667</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5887,10 +5757,8 @@
           <t>4080147695</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-02-08 07:09:44</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44235.29842592592</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5950,10 +5818,8 @@
           <t>4076555709</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-02-08 06:25:38</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44235.26780092593</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6021,10 +5887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-02-08 05:51:27</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44235.2440625</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6095,10 +5959,8 @@
           <t>4080033919</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-02-08 05:01:45</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44235.20954861111</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6166,10 +6028,8 @@
           <t>4080036296</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-02-08 04:53:19</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44235.20369212963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6241,10 +6101,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-02-08 04:01:40</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44235.16782407407</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6316,10 +6174,8 @@
           <t>4076301502</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-02-08 03:36:48</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44235.15055555556</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6391,10 +6247,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-02-08 03:34:14</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44235.14877314815</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6466,10 +6320,8 @@
           <t>4079906775</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-02-08 03:19:38</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44235.13863425926</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6540,10 +6392,8 @@
           <t>4079891424</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-02-08 03:10:40</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44235.13240740741</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6611,10 +6461,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-02-08 02:56:38</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44235.12266203704</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6682,10 +6530,8 @@
           <t>4076438140</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-02-08 02:39:01</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44235.11042824074</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6749,10 +6595,8 @@
           <t>4079813433</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-02-08 02:37:34</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44235.1094212963</v>
       </c>
       <c r="I87" t="n">
         <v>3</v>
@@ -6816,10 +6660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-02-08 02:33:16</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44235.10643518518</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6894,10 +6736,8 @@
           <t>4079749816</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-02-08 02:16:45</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44235.09496527778</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
@@ -6961,10 +6801,8 @@
           <t>4079693676</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-02-08 01:57:57</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44235.08190972222</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7047,10 +6885,8 @@
           <t>4079692442</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-02-08 01:56:53</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44235.08116898148</v>
       </c>
       <c r="I91" t="n">
         <v>7</v>
@@ -7133,10 +6969,8 @@
           <t>4079683377</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-02-08 01:55:33</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44235.08024305556</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7212,10 +7046,8 @@
           <t>4079674552</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-02-08 01:53:35</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44235.07887731482</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7283,10 +7115,8 @@
           <t>4079638842</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-02-08 01:44:15</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44235.07239583333</v>
       </c>
       <c r="I94" t="n">
         <v>4</v>
@@ -7362,10 +7192,8 @@
           <t>4079542593</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-02-08 01:21:04</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44235.05629629629</v>
       </c>
       <c r="I95" t="n">
         <v>21</v>
@@ -7433,10 +7261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-02-08 01:09:58</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44235.04858796296</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7515,10 +7341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-02-08 01:02:46</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44235.04358796297</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7585,10 +7409,8 @@
           <t>4079339384</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-02-08 00:46:18</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44235.03215277778</v>
       </c>
       <c r="I98" t="n">
         <v>4</v>
@@ -7664,10 +7486,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-02-08 00:44:07</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44235.03063657408</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7735,10 +7555,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-02-08 00:40:02</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44235.02780092593</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7813,10 +7631,8 @@
           <t>4079241892</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-02-08 00:31:12</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44235.02166666667</v>
       </c>
       <c r="I101" t="n">
         <v>11</v>
@@ -7899,10 +7715,8 @@
           <t>4079143210</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-02-08 00:17:38</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44235.01224537037</v>
       </c>
       <c r="I102" t="n">
         <v>7</v>
@@ -7981,10 +7795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-02-08 00:15:55</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44235.01105324074</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8052,10 +7864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-02-07 23:56:49</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44234.99778935185</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8127,10 +7937,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-02-07 23:45:42</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44234.99006944444</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8205,10 +8013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-02-07 23:39:58</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44234.98608796296</v>
       </c>
       <c r="I106" t="n">
         <v>42</v>
@@ -8272,10 +8078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-02-07 23:39:01</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44234.98542824074</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8335,10 +8139,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-02-07 23:12:36</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44234.96708333334</v>
       </c>
       <c r="I108" t="n">
         <v>2</v>
@@ -8414,10 +8216,8 @@
           <t>4078562920</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-02-07 23:08:53</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44234.96450231481</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8493,10 +8293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-02-07 23:08:10</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44234.96400462963</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8568,10 +8366,8 @@
           <t>4078549167</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-02-07 23:07:40</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44234.96365740741</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8635,10 +8431,8 @@
           <t>4078484980</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-02-07 23:01:06</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44234.95909722222</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8710,10 +8504,8 @@
           <t>4078341859</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-02-07 22:54:59</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44234.95484953704</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8789,10 +8581,8 @@
           <t>4078341859</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-02-07 22:45:51</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44234.94850694444</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8868,10 +8658,8 @@
           <t>4078308292</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-02-07 22:43:03</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44234.9465625</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8931,10 +8719,8 @@
           <t>4078290456</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-02-07 22:40:42</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44234.94493055555</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -9010,10 +8796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-02-07 22:30:13</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44234.93765046296</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9089,10 +8873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-02-07 22:19:53</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44234.93047453704</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9160,10 +8942,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-02-07 22:13:24</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44234.92597222222</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -9240,10 +9020,8 @@
           <t>4077706731</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-02-07 22:10:41</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44234.92408564815</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9307,10 +9085,8 @@
           <t>4077920894</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:54:59</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44234.91318287037</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9386,10 +9162,8 @@
           <t>4077915477</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:54:39</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44234.91295138889</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9484,10 +9258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:51:13</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44234.91056712963</v>
       </c>
       <c r="I123" t="n">
         <v>316</v>
@@ -9551,10 +9323,8 @@
           <t>4076300318</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:45:53</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44234.90686342592</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9634,10 +9404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:44:38</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44234.90599537037</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9709,10 +9477,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:42:50</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44234.90474537037</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9787,10 +9553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:27:11</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44234.89387731482</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9862,10 +9626,8 @@
           <t>4077706731</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:23:08</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44234.89106481482</v>
       </c>
       <c r="I128" t="n">
         <v>3</v>
@@ -9941,10 +9703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:17:37</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44234.8872337963</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -10008,10 +9768,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:09:35</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44234.88165509259</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10075,10 +9833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-02-07 21:00:10</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44234.87511574074</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10150,10 +9906,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:57:20</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44234.87314814814</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10229,10 +9983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:54:31</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44234.87119212963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10308,10 +10060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:54:06</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44234.87090277778</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10379,10 +10129,8 @@
           <t>4077521152</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:53:38</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44234.8705787037</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10450,10 +10198,8 @@
           <t>4077469633</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:46:25</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44234.86556712963</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10525,10 +10271,8 @@
           <t>4077422258</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:38:37</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44234.86015046296</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10605,10 +10349,8 @@
           <t>4077416738</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:37:43</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44234.85952546296</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10676,10 +10418,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:37:21</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44234.85927083333</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10743,10 +10483,8 @@
           <t>4077350510</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:26:02</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44234.85141203704</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10823,10 +10561,8 @@
           <t>4076352096</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:25:40</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44234.85115740741</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10894,10 +10630,8 @@
           <t>4077328885</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:24:01</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44234.85001157408</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10973,10 +10707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:21:43</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44234.84841435185</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11044,10 +10776,8 @@
           <t>4076611763</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:19:54</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44234.84715277778</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11122,10 +10852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:19:39</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44234.84697916666</v>
       </c>
       <c r="I145" t="n">
         <v>96</v>
@@ -11193,10 +10921,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:18:27</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44234.84614583333</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11260,10 +10986,8 @@
           <t>4076665697</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:17:11</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44234.8452662037</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11338,10 +11062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:16:54</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44234.84506944445</v>
       </c>
       <c r="I148" t="n">
         <v>2</v>
@@ -11417,10 +11139,8 @@
           <t>4077259737</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:13:09</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44234.84246527778</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11496,10 +11216,8 @@
           <t>4077244879</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:10:45</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44234.84079861111</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11571,10 +11289,8 @@
           <t>4077246333</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:09:31</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44234.83994212963</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11638,10 +11354,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:03:41</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44234.8358912037</v>
       </c>
       <c r="I152" t="n">
         <v>2</v>
@@ -11713,10 +11427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-02-07 20:02:33</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44234.83510416667</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11780,10 +11492,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:56:17</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44234.83075231482</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11859,10 +11569,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:54:59</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44234.82984953704</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11934,10 +11642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:51:18</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44234.82729166667</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -12009,10 +11715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:50:01</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44234.82640046296</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12072,10 +11776,8 @@
           <t>4076516666</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:49:12</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44234.82583333334</v>
       </c>
       <c r="I158" t="n">
         <v>9</v>
@@ -12143,10 +11845,8 @@
           <t>4076665697</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:48:40</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44234.82546296297</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12218,10 +11918,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:48:27</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44234.8253125</v>
       </c>
       <c r="I160" t="n">
         <v>2</v>
@@ -12285,10 +11983,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:46:57</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44234.82427083333</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12352,10 +12048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:45:48</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44234.82347222222</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12432,10 +12126,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:45:32</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44234.82328703703</v>
       </c>
       <c r="I163" t="n">
         <v>2</v>
@@ -12503,10 +12195,8 @@
           <t>4076665697</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:44:50</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44234.82280092593</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12578,10 +12268,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:44:47</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44234.8227662037</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12657,10 +12345,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:44:47</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44234.8227662037</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12738,10 +12424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:42:39</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44234.82128472222</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12817,10 +12501,8 @@
           <t>4077067093</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:42:38</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44234.82127314815</v>
       </c>
       <c r="I168" t="n">
         <v>6</v>
@@ -12896,10 +12578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:41:59</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44234.82082175926</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12982,10 +12662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:36:41</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44234.8171412037</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13053,10 +12731,8 @@
           <t>4077012368</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:33:48</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44234.81513888889</v>
       </c>
       <c r="I171" t="n">
         <v>2</v>
@@ -13136,10 +12812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:33:21</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44234.81482638889</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13207,10 +12881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:32:47</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44234.81443287037</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13274,10 +12946,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:30:31</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44234.81285879629</v>
       </c>
       <c r="I174" t="n">
         <v>4</v>
@@ -13345,10 +13015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:30:27</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44234.8128125</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13416,10 +13084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:30:10</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44234.81261574074</v>
       </c>
       <c r="I176" t="n">
         <v>3</v>
@@ -13495,10 +13161,8 @@
           <t>4076988232</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:30:01</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44234.81251157408</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13566,10 +13230,8 @@
           <t>4076986743</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:29:20</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44234.81203703704</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13641,10 +13303,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:26:16</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44234.80990740741</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13712,10 +13372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:25:49</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44234.8095949074</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13775,10 +13433,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:25:42</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44234.80951388889</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13855,10 +13511,8 @@
           <t>4076950636</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:24:01</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44234.8083449074</v>
       </c>
       <c r="I182" t="n">
         <v>8</v>
@@ -13922,10 +13576,8 @@
           <t>4076928705</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:20:52</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44234.80615740741</v>
       </c>
       <c r="I183" t="n">
         <v>9</v>
@@ -13989,10 +13641,8 @@
           <t>4076918848</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:20:28</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44234.80587962963</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14079,10 +13729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:18:46</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44234.80469907408</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14150,10 +13798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:15:39</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44234.80253472222</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14230,10 +13876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:14:12</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44234.80152777778</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14293,10 +13937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:13:35</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44234.80109953704</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14356,10 +13998,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:12:41</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44234.80047453703</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14435,10 +14075,8 @@
           <t>4076478468</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:12:39</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44234.80045138889</v>
       </c>
       <c r="I190" t="n">
         <v>6</v>
@@ -14506,10 +14144,8 @@
           <t>4076857083</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:10:39</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44234.7990625</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14573,10 +14209,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:09:17</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44234.79811342592</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14640,10 +14274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:08:21</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44234.79746527778</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14715,10 +14347,8 @@
           <t>4076829970</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:07:34</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44234.7969212963</v>
       </c>
       <c r="I194" t="n">
         <v>2</v>
@@ -14786,10 +14416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:06:56</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44234.79648148148</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14861,10 +14489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:06:37</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44234.79626157408</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14932,10 +14558,8 @@
           <t>4076798936</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:03:27</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44234.7940625</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14999,10 +14623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:02:52</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44234.7936574074</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15066,10 +14688,8 @@
           <t>4076807590</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:02:51</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44234.79364583334</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15145,10 +14765,8 @@
           <t>4076798936</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:02:42</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44234.79354166667</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15224,10 +14842,8 @@
           <t>4076792572</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-02-07 19:00:44</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44234.79217592593</v>
       </c>
       <c r="I201" t="n">
         <v>7</v>
@@ -15295,10 +14911,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:59:56</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44234.79162037037</v>
       </c>
       <c r="I202" t="n">
         <v>22</v>
@@ -15362,10 +14976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:59:42</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44234.79145833333</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15429,10 +15041,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:58:13</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44234.79042824074</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15500,10 +15110,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:58:11</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44234.79040509259</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15567,10 +15175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:57:25</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44234.78987268519</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15638,10 +15244,8 @@
           <t>4076759769</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:56:28</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44234.78921296296</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15701,10 +15305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:56:24</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44234.78916666667</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15764,10 +15366,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:56:19</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44234.7891087963</v>
       </c>
       <c r="I209" t="n">
         <v>10</v>
@@ -15827,10 +15427,8 @@
           <t>4076511900</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:55:57</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44234.78885416667</v>
       </c>
       <c r="I210" t="n">
         <v>5</v>
@@ -15902,10 +15500,8 @@
           <t>4076752629</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:55:05</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44234.78825231481</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15981,10 +15577,8 @@
           <t>4076749209</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:54:43</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44234.78799768518</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16052,10 +15646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:52:37</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44234.78653935185</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16119,10 +15711,8 @@
           <t>4076734269</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:52:28</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44234.78643518518</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16182,10 +15772,8 @@
           <t>4076734003</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:52:21</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44234.78635416667</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16249,10 +15837,8 @@
           <t>4076740016</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:51:56</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44234.78606481481</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16324,10 +15910,8 @@
           <t>4076722700</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:50:25</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44234.78501157407</v>
       </c>
       <c r="I217" t="n">
         <v>15</v>
@@ -16395,10 +15979,8 @@
           <t>4076357731</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:49:43</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44234.78452546296</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16462,10 +16044,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:49:39</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44234.78447916666</v>
       </c>
       <c r="I219" t="n">
         <v>15</v>
@@ -16541,10 +16121,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:49:28</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44234.78435185185</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -16612,10 +16190,8 @@
           <t>4076709066</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:48:43</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44234.78383101852</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16691,10 +16267,8 @@
           <t>4076702522</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:47:07</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44234.78271990741</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16769,10 +16343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:45:19</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44234.78146990741</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16844,10 +16416,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:45:04</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44234.7812962963</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16915,10 +16485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:44:14</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44234.78071759259</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16982,10 +16550,8 @@
           <t>4076511900</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:42:58</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44234.77983796296</v>
       </c>
       <c r="I226" t="n">
         <v>5</v>
@@ -17053,10 +16619,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:41:50</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44234.77905092593</v>
       </c>
       <c r="I227" t="n">
         <v>2</v>
@@ -17132,10 +16696,8 @@
           <t>4076670222</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:41:32</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44234.77884259259</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17212,10 +16774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:41:23</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44234.77873842593</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17286,10 +16846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:41:10</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44234.77858796297</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17353,10 +16911,8 @@
           <t>4076665697</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:40:30</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44234.778125</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17429,10 +16985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:38:02</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44234.77641203703</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17508,10 +17062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:36:45</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44234.77552083333</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17579,10 +17131,8 @@
           <t>4076632398</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:36:08</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44234.77509259259</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17650,10 +17200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:35:53</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44234.77491898148</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17725,10 +17273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:35:14</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44234.77446759259</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17788,10 +17334,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:34:44</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44234.77412037037</v>
       </c>
       <c r="I237" t="n">
         <v>43</v>
@@ -17855,10 +17399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:34:30</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44234.77395833333</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17918,10 +17460,8 @@
           <t>4076375825</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:34:13</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44234.77376157408</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17997,10 +17537,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:34:01</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44234.77362268518</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18068,10 +17606,8 @@
           <t>4076611763</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:33:07</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44234.77299768518</v>
       </c>
       <c r="I241" t="n">
         <v>7</v>
@@ -18135,10 +17671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:32:30</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44234.77256944445</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18214,10 +17748,8 @@
           <t>4076375825</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:32:02</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44234.77224537037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18277,10 +17809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:31:01</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44234.77153935185</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18344,10 +17874,8 @@
           <t>4076596489</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:30:46</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44234.77136574074</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18423,10 +17951,8 @@
           <t>4076595490</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:30:19</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44234.77105324074</v>
       </c>
       <c r="I246" t="n">
         <v>12</v>
@@ -18490,10 +18016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:29:35</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44234.77054398148</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18565,10 +18089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:29:26</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44234.77043981481</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18640,10 +18162,8 @@
           <t>4076301502</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:28:39</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44234.76989583333</v>
       </c>
       <c r="I249" t="n">
         <v>3</v>
@@ -18707,10 +18227,8 @@
           <t>4076390929</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:28:10</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44234.76956018519</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18786,10 +18304,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:28:05</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44234.76950231481</v>
       </c>
       <c r="I251" t="n">
         <v>24</v>
@@ -18857,10 +18373,8 @@
           <t>4076569135</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:27:22</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44234.76900462963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18932,10 +18446,8 @@
           <t>4076573034</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:26:56</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44234.7687037037</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19003,10 +18515,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:26:40</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44234.76851851852</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19070,10 +18580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:26:02</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44234.7680787037</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19137,10 +18645,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:25:24</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44234.76763888889</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19216,10 +18722,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:24:23</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44234.76693287037</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19295,10 +18799,8 @@
           <t>4076561305</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:24:12</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44234.76680555556</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19366,10 +18868,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:24:05</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44234.76672453704</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19445,10 +18945,8 @@
           <t>4076331109</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:23:39</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44234.76642361111</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19512,10 +19010,8 @@
           <t>4076555709</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:23:27</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44234.76628472222</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19587,10 +19083,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:23:20</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44234.7662037037</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19662,10 +19156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:23:18</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44234.76618055555</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19738,10 +19230,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:23:13</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44234.76612268519</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -19808,10 +19298,8 @@
           <t>4076547061</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:22:10</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44234.76539351852</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19879,10 +19367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:20:30</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44234.76423611111</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19946,10 +19432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:20:14</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44234.76405092593</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20009,10 +19493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:19:54</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44234.76381944444</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20095,10 +19577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:19:45</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44234.76371527778</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20170,10 +19650,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:19:01</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44234.76320601852</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20245,10 +19723,8 @@
           <t>4076438140</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:19:00</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44234.76319444444</v>
       </c>
       <c r="I271" t="n">
         <v>7</v>
@@ -20312,10 +19788,8 @@
           <t>4076530369</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:18:59</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44234.76318287037</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20387,10 +19861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:18:47</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44234.76304398148</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20454,10 +19926,8 @@
           <t>4076525569</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:18:46</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44234.76303240741</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20533,10 +20003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:18:37</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44234.76292824074</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20604,10 +20072,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:18:22</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44234.76275462963</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20683,10 +20149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:18:08</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44234.76259259259</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20762,10 +20226,8 @@
           <t>4076509160</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:18:08</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44234.76259259259</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20841,10 +20303,8 @@
           <t>4076375825</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:17:33</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44234.7621875</v>
       </c>
       <c r="I279" t="n">
         <v>2</v>
@@ -20908,10 +20368,8 @@
           <t>4076516666</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:17:17</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44234.76200231481</v>
       </c>
       <c r="I280" t="n">
         <v>54</v>
@@ -20983,10 +20441,8 @@
           <t>4076511900</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:17:06</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44234.761875</v>
       </c>
       <c r="I281" t="n">
         <v>130</v>
@@ -21058,10 +20514,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:16:29</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44234.76144675926</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21137,10 +20591,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:15:53</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44234.7610300926</v>
       </c>
       <c r="I283" t="n">
         <v>12</v>
@@ -21208,10 +20660,8 @@
           <t>4076438140</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:15:48</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44234.76097222222</v>
       </c>
       <c r="I284" t="n">
         <v>3</v>
@@ -21275,10 +20725,8 @@
           <t>4076498173</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:15:26</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44234.7607175926</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21354,10 +20802,8 @@
           <t>4076491721</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:14:43</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44234.76021990741</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21429,10 +20875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:14:13</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44234.75987268519</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21504,10 +20948,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:13:47</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44234.75957175926</v>
       </c>
       <c r="I288" t="n">
         <v>3</v>
@@ -21575,10 +21017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:13:41</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44234.75950231482</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21654,10 +21094,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:13:40</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44234.75949074074</v>
       </c>
       <c r="I290" t="n">
         <v>7</v>
@@ -21725,10 +21163,8 @@
           <t>4076488755</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:13:37</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44234.75945601852</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21797,10 +21233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:13:26</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44234.7593287037</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21868,10 +21302,8 @@
           <t>4076478468</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:13:12</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44234.75916666666</v>
       </c>
       <c r="I293" t="n">
         <v>87</v>
@@ -21938,10 +21370,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:12:55</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44234.75896990741</v>
       </c>
       <c r="I294" t="n">
         <v>8</v>
@@ -22009,10 +21439,8 @@
           <t>4076482293</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:12:44</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44234.75884259259</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22080,10 +21508,8 @@
           <t>4076438140</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:12:19</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44234.75855324074</v>
       </c>
       <c r="I296" t="n">
         <v>6</v>
@@ -22159,10 +21585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:12:04</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44234.75837962963</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22226,10 +21650,8 @@
           <t>4076485445</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:12:03</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44234.75836805555</v>
       </c>
       <c r="I298" t="n">
         <v>5</v>
@@ -22297,10 +21719,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:11:57</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44234.75829861111</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22367,10 +21787,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:11:45</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44234.75815972222</v>
       </c>
       <c r="I300" t="n">
         <v>2</v>
@@ -22446,10 +21864,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:11:45</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44234.75815972222</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22525,10 +21941,8 @@
           <t>4076464870</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:11:30</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44234.75798611111</v>
       </c>
       <c r="I302" t="n">
         <v>2</v>
@@ -22592,10 +22006,8 @@
           <t>4076464742</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:11:26</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44234.75793981482</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22671,10 +22083,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:11:24</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44234.75791666667</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22742,10 +22152,8 @@
           <t>4076468896</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:11:11</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44234.7577662037</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22809,10 +22217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:11:05</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44234.75769675926</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22876,10 +22282,8 @@
           <t>4076472966</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:10:53</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44234.75755787037</v>
       </c>
       <c r="I307" t="n">
         <v>110</v>
@@ -22951,10 +22355,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:10:32</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44234.75731481481</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23022,10 +22424,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:10:30</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44234.75729166667</v>
       </c>
       <c r="I309" t="n">
         <v>12</v>
@@ -23093,10 +22493,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:10:22</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44234.75719907408</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -23164,10 +22562,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:10:02</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44234.75696759259</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23239,10 +22635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:09:57</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44234.75690972222</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23318,10 +22712,8 @@
           <t>4076460746</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:09:38</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44234.75668981481</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23389,10 +22781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:09:34</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44234.75664351852</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23468,10 +22858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:08:57</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44234.75621527778</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23539,10 +22927,8 @@
           <t>4076316197</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:08:42</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44234.75604166667</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23618,10 +23004,8 @@
           <t>4076448287</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:08:33</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44234.7559375</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23697,10 +23081,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:08:28</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44234.75587962963</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23768,10 +23150,8 @@
           <t>4076447637</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:08:16</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44234.75574074074</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23835,10 +23215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:08:08</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44234.75564814815</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23910,10 +23288,8 @@
           <t>4076451985</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:08:08</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44234.75564814815</v>
       </c>
       <c r="I321" t="n">
         <v>5</v>
@@ -23988,10 +23364,8 @@
           <t>4076447227</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:08:04</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44234.75560185185</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24055,10 +23429,8 @@
           <t>4076451721</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:08:00</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44234.75555555556</v>
       </c>
       <c r="I323" t="n">
         <v>3</v>
@@ -24122,10 +23494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:07:43</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44234.7553587963</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24189,10 +23559,8 @@
           <t>4076450839</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:07:38</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44234.75530092593</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24268,10 +23636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:07:35</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44234.75526620371</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24343,10 +23709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:07:31</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44234.75521990741</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24414,10 +23778,8 @@
           <t>4076445837</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:07:26</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44234.75516203704</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24493,10 +23855,8 @@
           <t>4076445779</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:07:24</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44234.75513888889</v>
       </c>
       <c r="I329" t="n">
         <v>16</v>
@@ -24568,10 +23928,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:06:48</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44234.75472222222</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -24643,10 +24001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:06:32</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44234.75453703704</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24710,10 +24066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:06:31</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44234.75452546297</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24781,10 +24135,8 @@
           <t>4076438140</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:06:23</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44234.75443287037</v>
       </c>
       <c r="I333" t="n">
         <v>2</v>
@@ -24860,10 +24212,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:06:13</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44234.75431712963</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -24932,10 +24282,8 @@
           <t>4076328041</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:06:13</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44234.75431712963</v>
       </c>
       <c r="I335" t="n">
         <v>3</v>
@@ -25011,10 +24359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:06:04</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44234.75421296297</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25086,10 +24432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:06:03</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44234.75420138889</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25166,10 +24510,8 @@
           <t>4076442290</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:06:02</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44234.75418981481</v>
       </c>
       <c r="I338" t="n">
         <v>4</v>
@@ -25229,10 +24571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:05:54</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44234.75409722222</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25308,10 +24648,8 @@
           <t>4076432502</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:05:53</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44234.75408564815</v>
       </c>
       <c r="I340" t="n">
         <v>3</v>
@@ -25379,10 +24717,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:05:50</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44234.75405092593</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25459,10 +24795,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:05:34</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44234.75386574074</v>
       </c>
       <c r="I342" t="n">
         <v>38</v>
@@ -25530,10 +24864,8 @@
           <t>4076431534</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:05:26</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44234.75377314815</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -25593,10 +24925,8 @@
           <t>4076306658</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:05:25</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44234.75376157407</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25660,10 +24990,8 @@
           <t>4076435466</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:05:07</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44234.75355324074</v>
       </c>
       <c r="I345" t="n">
         <v>4</v>
@@ -25731,10 +25059,8 @@
           <t>4076300318</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:05:07</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44234.75355324074</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25806,10 +25132,8 @@
           <t>4076430652</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:05:03</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44234.75350694444</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25882,10 +25206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:04:57</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44234.7534375</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25961,10 +25283,8 @@
           <t>4076430192</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:04:49</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44234.75334490741</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26047,10 +25367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:04:48</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44234.75333333333</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26126,10 +25444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:04:34</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44234.7531712963</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26204,10 +25520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:04:30</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44234.753125</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
@@ -26283,10 +25597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:04:21</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44234.75302083333</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26362,10 +25674,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:04:12</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44234.75291666666</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26441,10 +25751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:04:02</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44234.75280092593</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26504,10 +25812,8 @@
           <t>4076301502</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:03:25</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44234.75237268519</v>
       </c>
       <c r="I356" t="n">
         <v>46</v>
@@ -26586,10 +25892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:03:24</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44234.75236111111</v>
       </c>
       <c r="I357" t="n">
         <v>4</v>
@@ -26661,10 +25965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:03:20</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44234.75231481482</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26732,10 +26034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:03:12</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44234.75222222223</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26811,10 +26111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:03:10</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44234.75219907407</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26886,10 +26184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:58</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44234.75206018519</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26961,10 +26257,8 @@
           <t>4076425410</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:55</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44234.75202546296</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27028,10 +26322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:54</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44234.75201388889</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -27103,10 +26395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:53</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44234.75200231482</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27182,10 +26472,8 @@
           <t>4076415888</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:50</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44234.75196759259</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -27262,10 +26550,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:47</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44234.75193287037</v>
       </c>
       <c r="I366" t="n">
         <v>21</v>
@@ -27333,10 +26619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:46</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44234.75192129629</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -27412,10 +26696,8 @@
           <t>4076414664</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:36</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44234.75180555556</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27475,10 +26757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:15</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44234.7515625</v>
       </c>
       <c r="I369" t="n">
         <v>9</v>
@@ -27550,10 +26830,8 @@
           <t>4076344311</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:02:08</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44234.75148148148</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27625,10 +26903,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:01:54</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44234.75131944445</v>
       </c>
       <c r="I371" t="n">
         <v>1</v>
@@ -27704,10 +26980,8 @@
           <t>4076375825</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:01:48</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44234.75125</v>
       </c>
       <c r="I372" t="n">
         <v>5</v>
@@ -27775,10 +27049,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:01:44</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44234.7512037037</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27855,10 +27127,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:01:43</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44234.75119212963</v>
       </c>
       <c r="I374" t="n">
         <v>22</v>
@@ -27926,10 +27196,8 @@
           <t>4076403334</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:01:42</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44234.75118055556</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27993,10 +27261,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:01:38</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44234.75113425926</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28072,10 +27338,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:01:37</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44234.75112268519</v>
       </c>
       <c r="I377" t="n">
         <v>28</v>
@@ -28158,10 +27422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:01:26</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44234.75099537037</v>
       </c>
       <c r="I378" t="n">
         <v>1726</v>
@@ -28229,10 +27491,8 @@
           <t>4076401419</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:54</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44234.750625</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28308,10 +27568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:52</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44234.75060185185</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28387,10 +27645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:43</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44234.75049768519</v>
       </c>
       <c r="I381" t="n">
         <v>209</v>
@@ -28454,10 +27710,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:24</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44234.75027777778</v>
       </c>
       <c r="I382" t="n">
         <v>7</v>
@@ -28521,10 +27775,8 @@
           <t>4076405088</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:23</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44234.7502662037</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28596,10 +27848,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:19</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44234.75021990741</v>
       </c>
       <c r="I384" t="n">
         <v>2</v>
@@ -28667,10 +27917,8 @@
           <t>4076399252</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:16</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44234.75018518518</v>
       </c>
       <c r="I385" t="n">
         <v>66</v>
@@ -28734,10 +27982,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:13</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44234.75015046296</v>
       </c>
       <c r="I386" t="n">
         <v>5</v>
@@ -28797,10 +28043,8 @@
           <t>4076394701</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:12</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44234.75013888889</v>
       </c>
       <c r="I387" t="n">
         <v>10</v>
@@ -28868,10 +28112,8 @@
           <t>4076328041</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:05</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44234.75005787037</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28947,10 +28189,8 @@
           <t>4076394447</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:04</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44234.7500462963</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -29010,10 +28250,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-02-07 18:00:01</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44234.75001157408</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29089,10 +28327,8 @@
           <t>4076389406</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:57</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44234.74996527778</v>
       </c>
       <c r="I391" t="n">
         <v>4</v>
@@ -29168,10 +28404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:53</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44234.74991898148</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29247,10 +28481,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:51</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44234.74989583333</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29322,10 +28554,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:44</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44234.74981481482</v>
       </c>
       <c r="I394" t="n">
         <v>11</v>
@@ -29401,10 +28631,8 @@
           <t>4076388813</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:39</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44234.74975694445</v>
       </c>
       <c r="I395" t="n">
         <v>8</v>
@@ -29468,10 +28696,8 @@
           <t>4076397956</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:39</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44234.74975694445</v>
       </c>
       <c r="I396" t="n">
         <v>2</v>
@@ -29535,10 +28761,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:36</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44234.74972222222</v>
       </c>
       <c r="I397" t="n">
         <v>2</v>
@@ -29605,10 +28829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:31</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44234.74966435185</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29677,10 +28899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:27</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44234.74961805555</v>
       </c>
       <c r="I399" t="n">
         <v>6</v>
@@ -29752,10 +28972,8 @@
           <t>4076397245</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:19</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44234.74952546296</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29827,10 +29045,8 @@
           <t>4076387586</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:03</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44234.74934027778</v>
       </c>
       <c r="I401" t="n">
         <v>6</v>
@@ -29906,10 +29122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:59:00</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44234.74930555555</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29981,10 +29195,8 @@
           <t>4076396273</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:58:53</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44234.74922453704</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -30052,10 +29264,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:58:48</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44234.74916666667</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30127,10 +29337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:58:34</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44234.74900462963</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30202,10 +29410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:58:27</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44234.74892361111</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30269,10 +29475,8 @@
           <t>4076325816</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:58:27</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44234.74892361111</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30348,10 +29552,8 @@
           <t>4076390929</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:58:24</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44234.74888888889</v>
       </c>
       <c r="I408" t="n">
         <v>4</v>
@@ -30427,10 +29629,8 @@
           <t>4076375825</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:58:14</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44234.74877314815</v>
       </c>
       <c r="I409" t="n">
         <v>76</v>
@@ -30494,10 +29694,8 @@
           <t>4076390419</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:58:09</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44234.74871527778</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30577,10 +29775,8 @@
           <t>4076379625</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:47</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44234.74846064814</v>
       </c>
       <c r="I411" t="n">
         <v>3</v>
@@ -30648,10 +29844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:44</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44234.74842592593</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30723,10 +29917,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:42</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44234.74840277778</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30798,10 +29990,8 @@
           <t>4076374726</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:41</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44234.74839120371</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30869,10 +30059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:34</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44234.74831018518</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30956,10 +30144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:23</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44234.74818287037</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -31027,10 +30213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:09</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44234.74802083334</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31098,10 +30282,8 @@
           <t>4076382316</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:05</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44234.74797453704</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31165,10 +30347,8 @@
           <t>4076322704</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:05</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44234.74797453704</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31244,10 +30424,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:01</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44234.74792824074</v>
       </c>
       <c r="I420" t="n">
         <v>4</v>
@@ -31311,10 +30489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:57:00</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44234.74791666667</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31374,10 +30550,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:56:53</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44234.74783564815</v>
       </c>
       <c r="I422" t="n">
         <v>2</v>
@@ -31445,10 +30619,8 @@
           <t>4076381159</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:56:33</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44234.74760416667</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31512,10 +30684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:56:32</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44234.74759259259</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31587,10 +30757,8 @@
           <t>4076381148</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:56:32</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44234.74759259259</v>
       </c>
       <c r="I425" t="n">
         <v>12</v>
@@ -31654,10 +30822,8 @@
           <t>4076376564</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:56:20</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44234.74745370371</v>
       </c>
       <c r="I426" t="n">
         <v>2</v>
@@ -31721,10 +30887,8 @@
           <t>4076376120</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:56:08</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44234.74731481481</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31788,10 +30952,8 @@
           <t>4076369978</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:56:02</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44234.74724537037</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31867,10 +31029,8 @@
           <t>4076375825</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:56:00</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44234.74722222222</v>
       </c>
       <c r="I429" t="n">
         <v>44</v>
@@ -31934,10 +31094,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:56:00</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44234.74722222222</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32013,10 +31171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:57</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44234.7471875</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32088,10 +31244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:56</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44234.74717592593</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32163,10 +31317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:50</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44234.74710648148</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32234,10 +31386,8 @@
           <t>4076375431</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:49</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44234.7470949074</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32312,10 +31462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:44</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44234.74703703704</v>
       </c>
       <c r="I435" t="n">
         <v>15</v>
@@ -32383,10 +31531,8 @@
           <t>4076375293</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:44</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44234.74703703704</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32458,10 +31604,8 @@
           <t>4076375192</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:41</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44234.74700231481</v>
       </c>
       <c r="I437" t="n">
         <v>208</v>
@@ -32546,10 +31690,8 @@
           <t>4076375160</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:41</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44234.74700231481</v>
       </c>
       <c r="I438" t="n">
         <v>7</v>
@@ -32626,10 +31768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:37</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44234.74695601852</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32704,10 +31844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:35</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44234.74693287037</v>
       </c>
       <c r="I440" t="n">
         <v>72</v>
@@ -32783,10 +31921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:25</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44234.74681712963</v>
       </c>
       <c r="I441" t="n">
         <v>4</v>
@@ -32858,10 +31994,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:55:01</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44234.74653935185</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32937,10 +32071,8 @@
           <t>4076367630</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:54:56</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44234.74648148148</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33008,10 +32140,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:54:48</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44234.74638888889</v>
       </c>
       <c r="I444" t="n">
         <v>27</v>
@@ -33071,10 +32201,8 @@
           <t>4076363096</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:54:39</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44234.74628472222</v>
       </c>
       <c r="I445" t="n">
         <v>2</v>
@@ -33138,10 +32266,8 @@
           <t>4076366893</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:54:36</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44234.74625</v>
       </c>
       <c r="I446" t="n">
         <v>7</v>
@@ -33205,10 +32331,8 @@
           <t>4076358281</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:54:34</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44234.74622685185</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33272,10 +32396,8 @@
           <t>4076358030</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:54:27</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44234.74614583333</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33352,10 +32474,8 @@
           <t>4076357731</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:54:19</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44234.74605324074</v>
       </c>
       <c r="I449" t="n">
         <v>151</v>
@@ -33419,10 +32539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:54:15</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44234.74600694444</v>
       </c>
       <c r="I450" t="n">
         <v>737</v>
@@ -33491,10 +32609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:54:01</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44234.7458449074</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33570,10 +32686,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:57</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44234.74579861111</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33641,10 +32755,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:52</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44234.74574074074</v>
       </c>
       <c r="I453" t="n">
         <v>18</v>
@@ -33712,10 +32824,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:48</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44234.74569444444</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33783,10 +32893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:44</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44234.74564814815</v>
       </c>
       <c r="I455" t="n">
         <v>3</v>
@@ -33846,10 +32954,8 @@
           <t>4076356450</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:39</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44234.74559027778</v>
       </c>
       <c r="I456" t="n">
         <v>3</v>
@@ -33921,10 +33027,8 @@
           <t>4076356137</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:30</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44234.74548611111</v>
       </c>
       <c r="I457" t="n">
         <v>2</v>
@@ -33988,10 +33092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:29</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44234.74547453703</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -34063,10 +33165,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:28</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44234.74546296296</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34138,10 +33238,8 @@
           <t>4076360095</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:12</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44234.74527777778</v>
       </c>
       <c r="I460" t="n">
         <v>166</v>
@@ -34213,10 +33311,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:11</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44234.7452662037</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -34295,10 +33391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:06</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44234.74520833333</v>
       </c>
       <c r="I462" t="n">
         <v>176</v>
@@ -34362,10 +33456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:53:06</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44234.74520833333</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34441,10 +33533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:52:53</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44234.74505787037</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34520,10 +33610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:52:36</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44234.74486111111</v>
       </c>
       <c r="I465" t="n">
         <v>4</v>
@@ -34595,10 +33683,8 @@
           <t>4076344311</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:52:36</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44234.74486111111</v>
       </c>
       <c r="I466" t="n">
         <v>5</v>
@@ -34670,10 +33756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:52:24</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44234.74472222223</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34741,10 +33825,8 @@
           <t>4076352096</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:52:20</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44234.74467592593</v>
       </c>
       <c r="I468" t="n">
         <v>91</v>
@@ -34808,10 +33890,8 @@
           <t>4076348186</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:52:15</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44234.74461805556</v>
       </c>
       <c r="I469" t="n">
         <v>2</v>
@@ -34883,10 +33963,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:52:13</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44234.74459490741</v>
       </c>
       <c r="I470" t="n">
         <v>174</v>
@@ -34954,10 +34032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:52:10</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44234.74456018519</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35033,10 +34109,8 @@
           <t>4076351545</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:52:04</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44234.74449074074</v>
       </c>
       <c r="I472" t="n">
         <v>2</v>
@@ -35100,10 +34174,8 @@
           <t>4076347543</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:57</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44234.74440972223</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35171,10 +34243,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:57</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44234.74440972223</v>
       </c>
       <c r="I474" t="n">
         <v>57</v>
@@ -35247,10 +34317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:54</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44234.744375</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35326,10 +34394,8 @@
           <t>4076336136</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:43</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44234.74424768519</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35406,10 +34472,8 @@
           <t>4076342542</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:42</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44234.74423611111</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35485,10 +34549,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:15</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44234.74392361111</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35552,10 +34614,8 @@
           <t>4076341535</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:13</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44234.74390046296</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35631,10 +34691,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:11</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44234.74387731482</v>
       </c>
       <c r="I480" t="n">
         <v>8</v>
@@ -35698,10 +34756,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:10</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44234.74386574074</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35769,10 +34825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:51:06</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44234.74381944445</v>
       </c>
       <c r="I482" t="n">
         <v>7</v>
@@ -35836,10 +34890,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:56</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44234.7437037037</v>
       </c>
       <c r="I483" t="n">
         <v>4</v>
@@ -35903,10 +34955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:54</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44234.74368055556</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35982,10 +35032,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:53</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44234.74366898148</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -36062,10 +35110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:52</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44234.74365740741</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36129,10 +35175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:49</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44234.74362268519</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36204,10 +35248,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:43</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44234.74355324074</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36275,10 +35317,8 @@
           <t>4076334855</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:37</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44234.74348379629</v>
       </c>
       <c r="I489" t="n">
         <v>4</v>
@@ -36338,10 +35378,8 @@
           <t>4076334772</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:35</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44234.74346064815</v>
       </c>
       <c r="I490" t="n">
         <v>4</v>
@@ -36405,10 +35443,8 @@
           <t>4076322704</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:34</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44234.74344907407</v>
       </c>
       <c r="I491" t="n">
         <v>2</v>
@@ -36484,10 +35520,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:26</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44234.74335648148</v>
       </c>
       <c r="I492" t="n">
         <v>19</v>
@@ -36563,10 +35597,8 @@
           <t>4076329802</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:20</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44234.74328703704</v>
       </c>
       <c r="I493" t="n">
         <v>2</v>
@@ -36630,10 +35662,8 @@
           <t>4076337441</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:08</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44234.74314814815</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36701,10 +35731,8 @@
           <t>4076337224</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:50:01</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44234.74306712963</v>
       </c>
       <c r="I495" t="n">
         <v>330</v>
@@ -36772,10 +35800,8 @@
           <t>4076300318</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:54</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44234.74298611111</v>
       </c>
       <c r="I496" t="n">
         <v>10</v>
@@ -36851,10 +35877,8 @@
           <t>4076333066</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:44</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44234.74287037037</v>
       </c>
       <c r="I497" t="n">
         <v>3</v>
@@ -36918,10 +35942,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:43</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44234.74285879629</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36989,10 +36011,8 @@
           <t>4076306658</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:42</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44234.74284722222</v>
       </c>
       <c r="I499" t="n">
         <v>6</v>
@@ -37067,10 +36087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:41</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44234.74283564815</v>
       </c>
       <c r="I500" t="n">
         <v>36</v>
@@ -37146,10 +36164,8 @@
           <t>4076336136</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:32</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44234.74273148148</v>
       </c>
       <c r="I501" t="n">
         <v>1</v>
@@ -37213,10 +36229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:29</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44234.74269675926</v>
       </c>
       <c r="I502" t="n">
         <v>76</v>
@@ -37288,10 +36302,8 @@
           <t>4076328041</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:29</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44234.74269675926</v>
       </c>
       <c r="I503" t="n">
         <v>221</v>
@@ -37359,10 +36371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:24</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44234.74263888889</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37426,10 +36436,8 @@
           <t>4076327869</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:24</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44234.74263888889</v>
       </c>
       <c r="I505" t="n">
         <v>12</v>
@@ -37505,10 +36513,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:24</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44234.74263888889</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37584,10 +36590,8 @@
           <t>4076332353</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:23</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44234.74262731482</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37647,10 +36651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:22</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44234.74261574074</v>
       </c>
       <c r="I508" t="n">
         <v>653</v>
@@ -37726,10 +36728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:21</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44234.74260416667</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37789,10 +36789,8 @@
           <t>4076331742</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:06</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44234.74243055555</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37860,10 +36858,8 @@
           <t>4076335218</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:49:05</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44234.74241898148</v>
       </c>
       <c r="I511" t="n">
         <v>1</v>
@@ -37931,10 +36927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:58</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44234.74233796296</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38006,10 +37000,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:57</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44234.74232638889</v>
       </c>
       <c r="I513" t="n">
         <v>1</v>
@@ -38077,10 +37069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:51</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44234.74225694445</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -38148,10 +37138,8 @@
           <t>4076306658</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:51</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44234.74225694445</v>
       </c>
       <c r="I515" t="n">
         <v>3</v>
@@ -38219,10 +37207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:48</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44234.74222222222</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38286,10 +37272,8 @@
           <t>4076331109</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:47</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44234.74221064815</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38357,10 +37341,8 @@
           <t>4076324499</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:46</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44234.74219907408</v>
       </c>
       <c r="I518" t="n">
         <v>7</v>
@@ -38436,10 +37418,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:42</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44234.74215277778</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38507,10 +37487,8 @@
           <t>4076325816</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:25</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44234.74195601852</v>
       </c>
       <c r="I520" t="n">
         <v>9</v>
@@ -38586,10 +37564,8 @@
           <t>4076319891</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:12</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44234.74180555555</v>
       </c>
       <c r="I521" t="n">
         <v>48</v>
@@ -38657,10 +37633,8 @@
           <t>4076319888</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:12</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44234.74180555555</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38736,10 +37710,8 @@
           <t>4076325279</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:09</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44234.74177083333</v>
       </c>
       <c r="I523" t="n">
         <v>12</v>
@@ -38815,10 +37787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:48:04</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44234.74171296296</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38894,10 +37864,8 @@
           <t>4076322704</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:56</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44234.74162037037</v>
       </c>
       <c r="I525" t="n">
         <v>90</v>
@@ -38973,10 +37941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:54</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44234.74159722222</v>
       </c>
       <c r="I526" t="n">
         <v>2</v>
@@ -39045,10 +38011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:52</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44234.74157407408</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39116,10 +38080,8 @@
           <t>4076322360</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:46</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44234.74150462963</v>
       </c>
       <c r="I528" t="n">
         <v>4</v>
@@ -39195,10 +38157,8 @@
           <t>4076316197</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:44</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44234.74148148148</v>
       </c>
       <c r="I529" t="n">
         <v>10</v>
@@ -39274,10 +38234,8 @@
           <t>4076314416</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:44</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44234.74148148148</v>
       </c>
       <c r="I530" t="n">
         <v>4</v>
@@ -39349,10 +38307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:40</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44234.74143518518</v>
       </c>
       <c r="I531" t="n">
         <v>2</v>
@@ -39428,10 +38384,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:35</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44234.74137731481</v>
       </c>
       <c r="I532" t="n">
         <v>79</v>
@@ -39499,10 +38453,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:31</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44234.74133101852</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39570,10 +38522,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:30</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44234.74131944445</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39649,10 +38599,8 @@
           <t>4076313898</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:29</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44234.74130787037</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39724,10 +38672,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:12</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44234.74111111111</v>
       </c>
       <c r="I536" t="n">
         <v>4</v>
@@ -39799,10 +38745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:47:00</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44234.74097222222</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39862,10 +38806,8 @@
           <t>4076306658</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:48</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44234.74083333334</v>
       </c>
       <c r="I538" t="n">
         <v>6</v>
@@ -39933,10 +38875,8 @@
           <t>4076316853</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:47</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44234.74082175926</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -40012,10 +38952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:46</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44234.74081018518</v>
       </c>
       <c r="I540" t="n">
         <v>7</v>
@@ -40079,10 +39017,8 @@
           <t>4076320053</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:42</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44234.74076388889</v>
       </c>
       <c r="I541" t="n">
         <v>6</v>
@@ -40146,10 +39082,8 @@
           <t>4076297317</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:28</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44234.74060185185</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40221,10 +39155,8 @@
           <t>4076316197</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:28</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44234.74060185185</v>
       </c>
       <c r="I543" t="n">
         <v>28</v>
@@ -40300,10 +39232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:23</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44234.74054398148</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40371,10 +39301,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:23</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44234.74054398148</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40446,10 +39374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:13</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44234.74042824074</v>
       </c>
       <c r="I546" t="n">
         <v>1</v>
@@ -40513,10 +39439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:46:10</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44234.74039351852</v>
       </c>
       <c r="I547" t="n">
         <v>690</v>
@@ -40580,10 +39504,8 @@
           <t>4076306658</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:57</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44234.74024305555</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40659,10 +39581,8 @@
           <t>4076297317</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:51</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44234.74017361111</v>
       </c>
       <c r="I549" t="n">
         <v>2</v>
@@ -40738,10 +39658,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:51</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44234.74017361111</v>
       </c>
       <c r="I550" t="n">
         <v>36</v>
@@ -40810,10 +39728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:46</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44234.74011574074</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -40881,10 +39797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:36</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44234.74</v>
       </c>
       <c r="I552" t="n">
         <v>3</v>
@@ -40960,10 +39874,8 @@
           <t>4076300318</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:35</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44234.73998842593</v>
       </c>
       <c r="I553" t="n">
         <v>12</v>
@@ -41039,10 +39951,8 @@
           <t>4076306658</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:35</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44234.73998842593</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41110,10 +40020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:28</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44234.73990740741</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41189,10 +40097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:27</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44234.73989583334</v>
       </c>
       <c r="I556" t="n">
         <v>2</v>
@@ -41264,10 +40170,8 @@
           <t>4076299068</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:14</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44234.73974537037</v>
       </c>
       <c r="I557" t="n">
         <v>72</v>
@@ -41343,10 +40247,8 @@
           <t>4076306658</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:45:06</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44234.73965277777</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41414,10 +40316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:49</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44234.73945601852</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41481,10 +40381,8 @@
           <t>4076298182</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:49</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44234.73945601852</v>
       </c>
       <c r="I560" t="n">
         <v>5</v>
@@ -41559,10 +40457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:43</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44234.73938657407</v>
       </c>
       <c r="I561" t="n">
         <v>39</v>
@@ -41626,10 +40522,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:43</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44234.73938657407</v>
       </c>
       <c r="I562" t="n">
         <v>1</v>
@@ -41693,10 +40587,8 @@
           <t>4076305789</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:41</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44234.73936342593</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41760,10 +40652,8 @@
           <t>4076302316</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:33</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44234.73927083334</v>
       </c>
       <c r="I564" t="n">
         <v>5</v>
@@ -41831,10 +40721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:25</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44234.73917824074</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41898,10 +40786,8 @@
           <t>4076297317</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:24</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44234.73916666667</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41973,10 +40859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:22</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44234.73914351852</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -42044,10 +40928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:20</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44234.73912037037</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42115,10 +40997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:16</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44234.73907407407</v>
       </c>
       <c r="I569" t="n">
         <v>19</v>
@@ -42182,10 +41062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:15</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44234.7390625</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42257,10 +41135,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:15</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44234.7390625</v>
       </c>
       <c r="I571" t="n">
         <v>4</v>
@@ -42336,10 +41212,8 @@
           <t>4076301502</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:11</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44234.7390162037</v>
       </c>
       <c r="I572" t="n">
         <v>21</v>
@@ -42415,10 +41289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:11</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44234.7390162037</v>
       </c>
       <c r="I573" t="n">
         <v>27</v>
@@ -42487,10 +41359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:11</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44234.7390162037</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42569,10 +41439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:05</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44234.73894675926</v>
       </c>
       <c r="I575" t="n">
         <v>369</v>
@@ -42648,10 +41516,8 @@
           <t>4076301284</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:04</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44234.73893518518</v>
       </c>
       <c r="I576" t="n">
         <v>111</v>
@@ -42723,10 +41589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:04</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44234.73893518518</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42790,10 +41654,8 @@
           <t>4076301274</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:04</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44234.73893518518</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42861,10 +41723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:02</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44234.73891203704</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42936,10 +41796,8 @@
           <t>4076292657</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:44:00</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44234.73888888889</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -43015,10 +41873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:58</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44234.73886574074</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43086,10 +41942,8 @@
           <t>4076292657</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:57</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44234.73885416667</v>
       </c>
       <c r="I582" t="n">
         <v>10</v>
@@ -43153,10 +42007,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:57</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44234.73885416667</v>
       </c>
       <c r="I583" t="n">
         <v>4</v>
@@ -43228,10 +42080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:49</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44234.73876157407</v>
       </c>
       <c r="I584" t="n">
         <v>250</v>
@@ -43306,10 +42156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:47</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44234.73873842593</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43381,10 +42229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:45</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44234.73871527778</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43460,10 +42306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:45</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44234.73871527778</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43531,10 +42375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:43</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44234.73869212963</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43602,10 +42444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:42</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44234.73868055556</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43677,10 +42517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:37</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44234.73862268519</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43759,10 +42597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:35</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44234.73859953704</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43826,10 +42662,8 @@
           <t>4076300318</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:34</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44234.73858796297</v>
       </c>
       <c r="I592" t="n">
         <v>106</v>
@@ -43905,10 +42739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:24</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44234.73847222222</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43972,10 +42804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:20</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44234.73842592593</v>
       </c>
       <c r="I594" t="n">
         <v>5</v>
@@ -44051,10 +42881,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:16</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44234.73837962963</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44130,10 +42958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:15</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44234.73836805556</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44201,10 +43027,8 @@
           <t>4076292657</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:14</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44234.73835648148</v>
       </c>
       <c r="I597" t="n">
         <v>4</v>
@@ -44268,10 +43092,8 @@
           <t>4076292510</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:10</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44234.73831018519</v>
       </c>
       <c r="I598" t="n">
         <v>9</v>
@@ -44347,10 +43169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:43:09</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44234.73829861111</v>
       </c>
       <c r="I599" t="n">
         <v>1</v>
@@ -44427,10 +43247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:59</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44234.73818287037</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44498,10 +43316,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:56</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44234.73814814815</v>
       </c>
       <c r="I601" t="n">
         <v>112</v>
@@ -44569,10 +43385,8 @@
           <t>4076291933</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:53</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44234.73811342593</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44648,10 +43462,8 @@
           <t>4076284103</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:49</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44234.73806712963</v>
       </c>
       <c r="I603" t="n">
         <v>474</v>
@@ -44727,10 +43539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:47</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44234.73804398148</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44794,10 +43604,8 @@
           <t>4076281067</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:43</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44234.73799768519</v>
       </c>
       <c r="I605" t="n">
         <v>37</v>
@@ -44873,10 +43681,8 @@
           <t>4076288151</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:30</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44234.73784722222</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
@@ -44944,10 +43750,8 @@
           <t>4076283221</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:24</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44234.73777777778</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -45023,10 +43827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:20</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44234.73773148148</v>
       </c>
       <c r="I608" t="n">
         <v>1</v>
@@ -45086,10 +43888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:42:02</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44234.73752314815</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -45157,10 +43957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:55</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44234.73744212963</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -45224,10 +44022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:50</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44234.73738425926</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -45291,10 +44087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:47</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44234.73734953703</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45358,10 +44152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:40</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44234.73726851852</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -45429,10 +44221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:39</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44234.73725694444</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45500,10 +44290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:37</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44234.7372337963</v>
       </c>
       <c r="I615" t="n">
         <v>1</v>
@@ -45567,10 +44355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:37</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44234.7372337963</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45646,10 +44432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:28</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44234.73712962963</v>
       </c>
       <c r="I617" t="n">
         <v>8</v>
@@ -45717,10 +44501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:27</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44234.73711805556</v>
       </c>
       <c r="I618" t="n">
         <v>2</v>
@@ -45793,10 +44575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:23</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44234.73707175926</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45864,10 +44644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:21</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44234.73704861111</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45935,10 +44713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:18</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44234.73701388889</v>
       </c>
       <c r="I621" t="n">
         <v>1</v>
@@ -46010,10 +44786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:17</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44234.73700231482</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -46081,10 +44855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:14</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44234.73696759259</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -46148,10 +44920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:10</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44234.73692129629</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46223,10 +44993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:10</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44234.73692129629</v>
       </c>
       <c r="I625" t="n">
         <v>1</v>
@@ -46294,10 +45062,8 @@
           <t>4076285439</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:10</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44234.73692129629</v>
       </c>
       <c r="I626" t="n">
         <v>20</v>
@@ -46366,10 +45132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:09</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44234.73690972223</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46444,10 +45208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:06</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44234.736875</v>
       </c>
       <c r="I628" t="n">
         <v>2406</v>
@@ -46511,10 +45273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:03</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44234.73684027778</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46590,10 +45350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:02</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44234.7368287037</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46661,10 +45419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:01</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44234.73681712963</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46740,10 +45496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:00</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44234.73680555556</v>
       </c>
       <c r="I632" t="n">
         <v>9</v>
@@ -46815,10 +45569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:41:00</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44234.73680555556</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46894,10 +45646,8 @@
           <t>4076280359</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:58</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44234.73678240741</v>
       </c>
       <c r="I634" t="n">
         <v>55</v>
@@ -46969,10 +45719,8 @@
           <t>4076280292</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:56</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44234.73675925926</v>
       </c>
       <c r="I635" t="n">
         <v>2</v>
@@ -47049,10 +45797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:55</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44234.73674768519</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -47116,10 +45862,8 @@
           <t>4076274920</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:55</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44234.73674768519</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47187,10 +45931,8 @@
           <t>4076280180</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:53</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44234.73672453704</v>
       </c>
       <c r="I638" t="n">
         <v>2</v>
@@ -47266,10 +46008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:52</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44234.73671296296</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47337,10 +46077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:47</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44234.73665509259</v>
       </c>
       <c r="I640" t="n">
         <v>108</v>
@@ -47408,10 +46146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:44</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44234.73662037037</v>
       </c>
       <c r="I641" t="n">
         <v>1</v>
@@ -47487,10 +46223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:44</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44234.73662037037</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47562,10 +46296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:43</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44234.73660879629</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47633,10 +46365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:43</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44234.73660879629</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47704,10 +46434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:39</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44234.7365625</v>
       </c>
       <c r="I645" t="n">
         <v>199</v>
@@ -47776,10 +46504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:39</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44234.7365625</v>
       </c>
       <c r="I646" t="n">
         <v>1100</v>
@@ -47843,10 +46569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:38</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44234.73655092593</v>
       </c>
       <c r="I647" t="n">
         <v>1</v>
@@ -47914,10 +46638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:38</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44234.73655092593</v>
       </c>
       <c r="I648" t="n">
         <v>5</v>
@@ -47993,10 +46715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:37</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44234.73653935185</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
@@ -48072,10 +46792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:35</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44234.7365162037</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48143,10 +46861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:31</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44234.73646990741</v>
       </c>
       <c r="I651" t="n">
         <v>1</v>
@@ -48214,10 +46930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:28</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44234.73643518519</v>
       </c>
       <c r="I652" t="n">
         <v>1</v>
@@ -48277,10 +46991,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:27</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44234.73642361111</v>
       </c>
       <c r="I653" t="n">
         <v>1</v>
@@ -48356,10 +47068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:27</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44234.73642361111</v>
       </c>
       <c r="I654" t="n">
         <v>2</v>
@@ -48431,10 +47141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:25</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44234.73640046296</v>
       </c>
       <c r="I655" t="n">
         <v>34</v>
@@ -48506,10 +47214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:24</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44234.73638888889</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48573,10 +47279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:24</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44234.73638888889</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48640,10 +47344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:23</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44234.73637731482</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -48707,10 +47409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:23</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44234.73637731482</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -48786,10 +47486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:22</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44234.73636574074</v>
       </c>
       <c r="I660" t="n">
         <v>0</v>
@@ -48853,10 +47551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:22</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44234.73636574074</v>
       </c>
       <c r="I661" t="n">
         <v>167</v>
@@ -48921,10 +47617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:22</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44234.73636574074</v>
       </c>
       <c r="I662" t="n">
         <v>649</v>
@@ -49000,10 +47694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:18</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44234.73631944445</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -49067,10 +47759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:16</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44234.73629629629</v>
       </c>
       <c r="I664" t="n">
         <v>1</v>
@@ -49146,10 +47836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:16</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44234.73629629629</v>
       </c>
       <c r="I665" t="n">
         <v>1</v>
@@ -49225,10 +47913,8 @@
           <t>4076273647</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:16</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44234.73629629629</v>
       </c>
       <c r="I666" t="n">
         <v>73</v>
@@ -49301,10 +47987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:10</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44234.73622685186</v>
       </c>
       <c r="I667" t="n">
         <v>1</v>
@@ -49380,10 +48064,8 @@
           <t>4076273382</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:08</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44234.7362037037</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
@@ -49447,10 +48129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:07</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44234.73619212963</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49518,10 +48198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:03</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44234.73614583333</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49585,10 +48263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:01</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44234.73612268519</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49652,10 +48328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:01</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44234.73612268519</v>
       </c>
       <c r="I672" t="n">
         <v>1</v>
@@ -49723,10 +48397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:40:00</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44234.73611111111</v>
       </c>
       <c r="I673" t="n">
         <v>1</v>
@@ -49795,10 +48467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:59</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44234.73609953704</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
@@ -49874,10 +48544,8 @@
           <t>4076268305</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:58</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44234.73608796296</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -49954,10 +48622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:56</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44234.73606481482</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
@@ -50029,10 +48695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:56</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44234.73606481482</v>
       </c>
       <c r="I677" t="n">
         <v>5</v>
@@ -50100,10 +48764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:51</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44234.73600694445</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
@@ -50179,10 +48841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:51</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44234.73600694445</v>
       </c>
       <c r="I679" t="n">
         <v>1</v>
@@ -50258,10 +48918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:51</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44234.73600694445</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50325,10 +48983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:49</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44234.73598379629</v>
       </c>
       <c r="I681" t="n">
         <v>1</v>
@@ -50396,10 +49052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:49</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44234.73598379629</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -50467,10 +49121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:47</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44234.73596064815</v>
       </c>
       <c r="I683" t="n">
         <v>5</v>
@@ -50546,10 +49198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:47</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44234.73596064815</v>
       </c>
       <c r="I684" t="n">
         <v>1</v>
@@ -50617,10 +49267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:47</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44234.73596064815</v>
       </c>
       <c r="I685" t="n">
         <v>9</v>
@@ -50688,10 +49336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:46</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44234.73594907407</v>
       </c>
       <c r="I686" t="n">
         <v>4</v>
@@ -50767,10 +49413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:46</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44234.73594907407</v>
       </c>
       <c r="I687" t="n">
         <v>1</v>
@@ -50838,10 +49482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:46</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44234.73594907407</v>
       </c>
       <c r="I688" t="n">
         <v>1</v>
@@ -50909,10 +49551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:45</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44234.7359375</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -50981,10 +49621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:45</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44234.7359375</v>
       </c>
       <c r="I690" t="n">
         <v>1</v>
@@ -51048,10 +49686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:43</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44234.73591435186</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -51123,10 +49759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:42</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44234.73590277778</v>
       </c>
       <c r="I692" t="n">
         <v>12</v>
@@ -51202,10 +49836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:41</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44234.7358912037</v>
       </c>
       <c r="I693" t="n">
         <v>4023</v>
@@ -51281,10 +49913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:41</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44234.7358912037</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
@@ -51352,10 +49982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:40</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44234.73587962963</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
@@ -51431,10 +50059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:40</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44234.73587962963</v>
       </c>
       <c r="I696" t="n">
         <v>2</v>
@@ -51507,10 +50133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:39</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44234.73586805556</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
@@ -51570,10 +50194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:38</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44234.73585648148</v>
       </c>
       <c r="I698" t="n">
         <v>1</v>
@@ -51641,10 +50263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:38</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44234.73585648148</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
@@ -51720,10 +50340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:38</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44234.73585648148</v>
       </c>
       <c r="I700" t="n">
         <v>1</v>
@@ -51791,10 +50409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:38</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44234.73585648148</v>
       </c>
       <c r="I701" t="n">
         <v>1</v>
@@ -51870,10 +50486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:38</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44234.73585648148</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
@@ -51941,10 +50555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:36</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44234.73583333333</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
@@ -52008,10 +50620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:36</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44234.73583333333</v>
       </c>
       <c r="I704" t="n">
         <v>935</v>
@@ -52079,10 +50689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:35</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44234.73582175926</v>
       </c>
       <c r="I705" t="n">
         <v>1</v>
@@ -52150,10 +50758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:34</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44234.73581018519</v>
       </c>
       <c r="I706" t="n">
         <v>1</v>
@@ -52229,10 +50835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:34</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44234.73581018519</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
@@ -52300,10 +50904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:33</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44234.73579861111</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -52375,10 +50977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-02-07 17:39:30</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44234.73576388889</v>
       </c>
       <c r="I709" t="n">
         <v>1</v>
